--- a/data/outputs/management_elsevier/71.xlsx
+++ b/data/outputs/management_elsevier/71.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS62"/>
+  <dimension ref="A1:BU62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84941286006</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1277</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1144,6 +1160,12 @@
           <t>2-s2.0-84941915001</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1684</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1364,6 +1386,12 @@
         <is>
           <t>2-s2.0-84941906831</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84941948285</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1278</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1779,6 +1813,12 @@
           <t>2-s2.0-84941950493</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1632</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1984,6 +2024,12 @@
           <t>2-s2.0-84946210434</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2204,6 +2250,12 @@
         <is>
           <t>2-s2.0-84947037568</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>1562</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -2428,6 +2480,12 @@
           <t>2-s2.0-84937575512</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2043</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2645,6 +2703,12 @@
           <t>2-s2.0-84937000689</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1572</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2862,6 +2926,12 @@
           <t>2-s2.0-84937553869</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3071,6 +3141,12 @@
           <t>2-s2.0-84938077994</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1403</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3284,6 +3360,12 @@
           <t>2-s2.0-84938599573</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3137</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3505,6 +3587,12 @@
           <t>2-s2.0-84938392015</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1443</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3726,6 +3814,12 @@
           <t>2-s2.0-84938943590</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3005</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3947,6 +4041,12 @@
           <t>2-s2.0-84938828776</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1429</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4160,6 +4260,12 @@
           <t>2-s2.0-84938845242</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1198</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4373,6 +4479,12 @@
           <t>2-s2.0-84940645255</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>939</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4600,6 +4712,12 @@
           <t>2-s2.0-84941598954</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>3108</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4805,6 +4923,12 @@
           <t>2-s2.0-84939217315</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3035</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5026,6 +5150,12 @@
           <t>2-s2.0-84940211401</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1546</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5247,6 +5377,12 @@
           <t>2-s2.0-84940920913</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5460,6 +5596,12 @@
           <t>2-s2.0-84941598942</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>3706</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5673,6 +5815,12 @@
           <t>2-s2.0-84929626859</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3393</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5878,6 +6026,12 @@
           <t>2-s2.0-84930662021</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>864</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6091,6 +6245,12 @@
           <t>2-s2.0-84930939354</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2996</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6304,6 +6464,12 @@
           <t>2-s2.0-84930651795</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1198</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6521,6 +6687,12 @@
           <t>2-s2.0-84930939335</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>780</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6734,6 +6906,12 @@
           <t>2-s2.0-84930934958</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1444</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6947,6 +7125,12 @@
           <t>2-s2.0-84936742101</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>822</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7160,6 +7344,12 @@
           <t>2-s2.0-84952864744</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3629</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7373,6 +7563,12 @@
           <t>2-s2.0-84952865437</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>6837</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7585,6 +7781,12 @@
         <is>
           <t>2-s2.0-84938085797</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>4085</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -7791,6 +7993,12 @@
           <t>2-s2.0-84925321394</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>811</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7996,6 +8204,12 @@
           <t>2-s2.0-84925794659</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1716</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8217,6 +8431,12 @@
           <t>2-s2.0-84928235687</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>402</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8438,6 +8658,12 @@
           <t>2-s2.0-84929650512</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>2538</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8651,6 +8877,12 @@
           <t>2-s2.0-84929578926</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>941</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8864,6 +9096,12 @@
           <t>2-s2.0-84962343809</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2263</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9076,6 +9314,12 @@
         <is>
           <t>2-s2.0-84929455948</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>2761</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -9290,6 +9534,12 @@
           <t>2-s2.0-84923869113</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1779</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9511,6 +9761,12 @@
           <t>2-s2.0-84925332082</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>876</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9728,6 +9984,12 @@
           <t>2-s2.0-84925327884</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>891</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9941,6 +10203,12 @@
           <t>2-s2.0-84922933691</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3702</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10154,6 +10422,12 @@
           <t>2-s2.0-84922913043</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>3538</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10359,6 +10633,12 @@
           <t>2-s2.0-84923201084</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1171</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10568,6 +10848,12 @@
           <t>2-s2.0-84923226578</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1160</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10789,6 +11075,12 @@
           <t>2-s2.0-84922032830</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2987</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11002,6 +11294,12 @@
           <t>2-s2.0-84922574804</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>4841</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11209,6 +11507,12 @@
           <t>2-s2.0-84920748633</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3946</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11422,6 +11726,12 @@
           <t>2-s2.0-84920718686</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1453</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11637,6 +11947,12 @@
           <t>2-s2.0-84921416421</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1675</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11850,6 +12166,12 @@
           <t>2-s2.0-84921472911</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1151</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12059,6 +12381,12 @@
           <t>2-s2.0-84919665013</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1559</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12264,6 +12592,12 @@
           <t>2-s2.0-84917707345</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>919</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12469,6 +12803,12 @@
           <t>2-s2.0-84920380473</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1672</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12682,6 +13022,12 @@
           <t>2-s2.0-84919621176</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1816</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12895,6 +13241,12 @@
           <t>2-s2.0-84937158560</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1973</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13114,6 +13466,12 @@
           <t>2-s2.0-84947489572</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1390</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13323,6 +13681,12 @@
           <t>2-s2.0-84911945792</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1036</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13528,6 +13892,12 @@
           <t>2-s2.0-84912570661</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1218</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13737,6 +14107,12 @@
           <t>2-s2.0-84911930890</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>3070</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
